--- a/etheder-startdata/src/main/resources/StartData.xlsx
+++ b/etheder-startdata/src/main/resources/StartData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Johan\projects\java\etheder\workspace\etheder\etheder-startdata\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7E3C3F-8CDD-4DD0-AC4F-4F7E4FB5CEEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0EB4EA-E752-450D-B0D7-D339969871BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>Defense</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -1335,6 +1332,9 @@
   </si>
   <si>
     <t>The finest version of siege weapons, they are able to help your army to even greater glory.</t>
+  </si>
+  <si>
+    <t>Defensive</t>
   </si>
 </sst>
 </file>
@@ -1667,16 +1667,16 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1711,13 +1711,13 @@
         <v>26</v>
       </c>
       <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1755,10 +1755,10 @@
         <v>100</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -1796,18 +1796,18 @@
         <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>12</v>
@@ -1837,18 +1837,18 @@
         <v>100</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>24</v>
@@ -1878,10 +1878,10 @@
         <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -1919,10 +1919,10 @@
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1960,10 +1960,10 @@
         <v>200</v>
       </c>
       <c r="M7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2001,10 +2001,10 @@
         <v>2000</v>
       </c>
       <c r="M8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2042,18 +2042,18 @@
         <v>10</v>
       </c>
       <c r="M9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D10">
         <v>16</v>
@@ -2083,18 +2083,18 @@
         <v>10</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D11">
         <v>20</v>
@@ -2124,18 +2124,18 @@
         <v>10</v>
       </c>
       <c r="M11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>35</v>
@@ -2156,7 +2156,7 @@
         <v>500</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -2165,18 +2165,18 @@
         <v>10</v>
       </c>
       <c r="M12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D13">
         <v>48</v>
@@ -2197,7 +2197,7 @@
         <v>500</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2206,18 +2206,18 @@
         <v>10</v>
       </c>
       <c r="M13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="D14">
         <v>54</v>
@@ -2238,7 +2238,7 @@
         <v>500</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -2247,18 +2247,18 @@
         <v>10</v>
       </c>
       <c r="M14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D15">
         <v>60</v>
@@ -2288,18 +2288,18 @@
         <v>10</v>
       </c>
       <c r="M15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
       <c r="B16" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" t="s">
         <v>159</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -2329,18 +2329,18 @@
         <v>10</v>
       </c>
       <c r="M16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
         <v>161</v>
-      </c>
-      <c r="C17" t="s">
-        <v>162</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -2370,18 +2370,18 @@
         <v>10</v>
       </c>
       <c r="M17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" t="s">
         <v>163</v>
-      </c>
-      <c r="C18" t="s">
-        <v>164</v>
       </c>
       <c r="D18">
         <v>12</v>
@@ -2411,18 +2411,18 @@
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" t="s">
         <v>85</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
       </c>
       <c r="D19">
         <v>16</v>
@@ -2452,18 +2452,18 @@
         <v>10</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
         <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>88</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -2493,18 +2493,18 @@
         <v>10</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
         <v>165</v>
-      </c>
-      <c r="C21" t="s">
-        <v>166</v>
       </c>
       <c r="D21">
         <v>24</v>
@@ -2525,7 +2525,7 @@
         <v>500</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2534,18 +2534,18 @@
         <v>10</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" t="s">
         <v>167</v>
-      </c>
-      <c r="C22" t="s">
-        <v>168</v>
       </c>
       <c r="D22">
         <v>35</v>
@@ -2575,18 +2575,18 @@
         <v>10</v>
       </c>
       <c r="M22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
         <v>169</v>
-      </c>
-      <c r="C23" t="s">
-        <v>170</v>
       </c>
       <c r="D23">
         <v>48</v>
@@ -2607,7 +2607,7 @@
         <v>500</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2616,18 +2616,18 @@
         <v>10</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s">
         <v>171</v>
-      </c>
-      <c r="C24" t="s">
-        <v>172</v>
       </c>
       <c r="D24">
         <v>54</v>
@@ -2648,7 +2648,7 @@
         <v>500</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2657,18 +2657,18 @@
         <v>10</v>
       </c>
       <c r="M24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" t="s">
         <v>173</v>
-      </c>
-      <c r="C25" t="s">
-        <v>174</v>
       </c>
       <c r="D25">
         <v>60</v>
@@ -2698,18 +2698,18 @@
         <v>10</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" t="s">
         <v>312</v>
-      </c>
-      <c r="C26" t="s">
-        <v>313</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -2739,18 +2739,18 @@
         <v>10</v>
       </c>
       <c r="M26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" t="s">
         <v>314</v>
-      </c>
-      <c r="C27" t="s">
-        <v>315</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -2780,18 +2780,18 @@
         <v>10</v>
       </c>
       <c r="M27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" t="s">
         <v>316</v>
-      </c>
-      <c r="C28" t="s">
-        <v>317</v>
       </c>
       <c r="D28">
         <v>12</v>
@@ -2821,18 +2821,18 @@
         <v>10</v>
       </c>
       <c r="M28" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
         <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
       </c>
       <c r="D29">
         <v>16</v>
@@ -2862,18 +2862,18 @@
         <v>10</v>
       </c>
       <c r="M29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
       </c>
       <c r="D30">
         <v>20</v>
@@ -2903,18 +2903,18 @@
         <v>10</v>
       </c>
       <c r="M30" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" t="s">
         <v>318</v>
-      </c>
-      <c r="C31" t="s">
-        <v>319</v>
       </c>
       <c r="D31">
         <v>24</v>
@@ -2944,18 +2944,18 @@
         <v>10</v>
       </c>
       <c r="M31" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" t="s">
         <v>320</v>
-      </c>
-      <c r="C32" t="s">
-        <v>321</v>
       </c>
       <c r="D32">
         <v>35</v>
@@ -2976,7 +2976,7 @@
         <v>500</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2985,18 +2985,18 @@
         <v>10</v>
       </c>
       <c r="M32" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" t="s">
         <v>322</v>
-      </c>
-      <c r="C33" t="s">
-        <v>323</v>
       </c>
       <c r="D33">
         <v>48</v>
@@ -3017,7 +3017,7 @@
         <v>500</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3026,18 +3026,18 @@
         <v>10</v>
       </c>
       <c r="M33" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" t="s">
         <v>324</v>
-      </c>
-      <c r="C34" t="s">
-        <v>325</v>
       </c>
       <c r="D34">
         <v>54</v>
@@ -3058,7 +3058,7 @@
         <v>500</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3067,18 +3067,18 @@
         <v>10</v>
       </c>
       <c r="M34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
       <c r="B35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" t="s">
         <v>326</v>
-      </c>
-      <c r="C35" t="s">
-        <v>327</v>
       </c>
       <c r="D35">
         <v>60</v>
@@ -3108,18 +3108,18 @@
         <v>10</v>
       </c>
       <c r="M35" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C36" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -3149,18 +3149,18 @@
         <v>10</v>
       </c>
       <c r="M36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D37">
         <v>10</v>
@@ -3190,18 +3190,18 @@
         <v>10</v>
       </c>
       <c r="M37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D38">
         <v>12</v>
@@ -3231,18 +3231,18 @@
         <v>10</v>
       </c>
       <c r="M38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
         <v>85</v>
-      </c>
-      <c r="C39" t="s">
-        <v>86</v>
       </c>
       <c r="D39">
         <v>16</v>
@@ -3272,18 +3272,18 @@
         <v>10</v>
       </c>
       <c r="M39" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
         <v>87</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
       </c>
       <c r="D40">
         <v>20</v>
@@ -3313,18 +3313,18 @@
         <v>10</v>
       </c>
       <c r="M40" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D41">
         <v>24</v>
@@ -3354,18 +3354,18 @@
         <v>10</v>
       </c>
       <c r="M41" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D42">
         <v>35</v>
@@ -3386,7 +3386,7 @@
         <v>500</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -3395,18 +3395,18 @@
         <v>10</v>
       </c>
       <c r="M42" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" t="s">
         <v>413</v>
-      </c>
-      <c r="C43" t="s">
-        <v>414</v>
       </c>
       <c r="D43">
         <v>48</v>
@@ -3427,7 +3427,7 @@
         <v>500</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -3436,18 +3436,18 @@
         <v>10</v>
       </c>
       <c r="M43" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D44">
         <v>54</v>
@@ -3468,7 +3468,7 @@
         <v>500</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3477,18 +3477,18 @@
         <v>10</v>
       </c>
       <c r="M44" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>415</v>
+      </c>
+      <c r="C45" t="s">
         <v>416</v>
-      </c>
-      <c r="C45" t="s">
-        <v>417</v>
       </c>
       <c r="D45">
         <v>60</v>
@@ -3518,10 +3518,10 @@
         <v>10</v>
       </c>
       <c r="M45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -3559,18 +3559,18 @@
         <v>10</v>
       </c>
       <c r="M46" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>418</v>
+      </c>
+      <c r="C47" t="s">
         <v>419</v>
-      </c>
-      <c r="C47" t="s">
-        <v>420</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -3600,18 +3600,18 @@
         <v>10</v>
       </c>
       <c r="M47" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D48">
         <v>12</v>
@@ -3641,18 +3641,18 @@
         <v>10</v>
       </c>
       <c r="M48" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D49">
         <v>16</v>
@@ -3682,18 +3682,18 @@
         <v>10</v>
       </c>
       <c r="M49" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D50">
         <v>20</v>
@@ -3723,18 +3723,18 @@
         <v>10</v>
       </c>
       <c r="M50" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D51">
         <v>24</v>
@@ -3764,18 +3764,18 @@
         <v>10</v>
       </c>
       <c r="M51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C52" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D52">
         <v>35</v>
@@ -3796,7 +3796,7 @@
         <v>500</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3805,18 +3805,18 @@
         <v>10</v>
       </c>
       <c r="M52" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
       <c r="B53" t="s">
+        <v>425</v>
+      </c>
+      <c r="C53" t="s">
         <v>426</v>
-      </c>
-      <c r="C53" t="s">
-        <v>427</v>
       </c>
       <c r="D53">
         <v>48</v>
@@ -3837,7 +3837,7 @@
         <v>500</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3846,18 +3846,18 @@
         <v>10</v>
       </c>
       <c r="M53" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C54" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D54">
         <v>54</v>
@@ -3878,7 +3878,7 @@
         <v>500</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3887,18 +3887,18 @@
         <v>10</v>
       </c>
       <c r="M54" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>428</v>
+      </c>
+      <c r="C55" t="s">
         <v>429</v>
-      </c>
-      <c r="C55" t="s">
-        <v>430</v>
       </c>
       <c r="D55">
         <v>60</v>
@@ -3928,7 +3928,7 @@
         <v>10</v>
       </c>
       <c r="M55" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3941,29 +3941,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="136.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="136.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3974,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>11</v>
@@ -4001,51 +4002,51 @@
         <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>435</v>
       </c>
       <c r="N1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>37</v>
       </c>
-      <c r="U1" t="s">
-        <v>38</v>
-      </c>
       <c r="V1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" t="s">
         <v>77</v>
       </c>
-      <c r="X1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -4078,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -4105,21 +4106,21 @@
         <v>12</v>
       </c>
       <c r="W2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -4152,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -4179,21 +4180,21 @@
         <v>10</v>
       </c>
       <c r="W3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -4226,7 +4227,7 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -4253,21 +4254,21 @@
         <v>12</v>
       </c>
       <c r="W4" t="s">
+        <v>78</v>
+      </c>
+      <c r="X4" t="s">
         <v>79</v>
       </c>
-      <c r="X4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -4300,7 +4301,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4327,21 +4328,21 @@
         <v>12</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -4374,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O6">
         <v>4</v>
@@ -4401,21 +4402,21 @@
         <v>12</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -4448,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7">
         <v>4</v>
@@ -4475,21 +4476,21 @@
         <v>9</v>
       </c>
       <c r="W7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>8</v>
@@ -4522,7 +4523,7 @@
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O8">
         <v>4</v>
@@ -4549,21 +4550,21 @@
         <v>12</v>
       </c>
       <c r="W8" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s">
         <v>79</v>
       </c>
-      <c r="X8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -4596,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -4623,21 +4624,21 @@
         <v>12</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -4670,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O10">
         <v>4</v>
@@ -4697,21 +4698,21 @@
         <v>10</v>
       </c>
       <c r="W10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -4744,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11">
         <v>4</v>
@@ -4771,21 +4772,21 @@
         <v>9</v>
       </c>
       <c r="W11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12">
         <v>8</v>
@@ -4818,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -4845,21 +4846,21 @@
         <v>12</v>
       </c>
       <c r="W12" t="s">
+        <v>78</v>
+      </c>
+      <c r="X12" t="s">
         <v>79</v>
       </c>
-      <c r="X12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -4892,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -4919,21 +4920,21 @@
         <v>12</v>
       </c>
       <c r="W13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -4954,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4966,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O14">
         <v>4</v>
@@ -4993,21 +4994,21 @@
         <v>6</v>
       </c>
       <c r="W14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15">
         <v>16</v>
@@ -5028,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -5040,7 +5041,7 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O15">
         <v>4</v>
@@ -5067,21 +5068,21 @@
         <v>6</v>
       </c>
       <c r="W15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -5102,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -5114,7 +5115,7 @@
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -5141,21 +5142,21 @@
         <v>6</v>
       </c>
       <c r="W16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17">
         <v>16</v>
@@ -5176,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -5188,7 +5189,7 @@
         <v>7</v>
       </c>
       <c r="N17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O17">
         <v>6</v>
@@ -5215,21 +5216,21 @@
         <v>12</v>
       </c>
       <c r="W17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -5250,7 +5251,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -5262,7 +5263,7 @@
         <v>8</v>
       </c>
       <c r="N18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O18">
         <v>6</v>
@@ -5289,21 +5290,21 @@
         <v>12</v>
       </c>
       <c r="W18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <v>16</v>
@@ -5324,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -5336,7 +5337,7 @@
         <v>9</v>
       </c>
       <c r="N19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O19">
         <v>7</v>
@@ -5363,21 +5364,21 @@
         <v>12</v>
       </c>
       <c r="W19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -5398,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -5410,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -5437,21 +5438,21 @@
         <v>6</v>
       </c>
       <c r="W20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21">
         <v>8</v>
@@ -5484,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O21">
         <v>5</v>
@@ -5511,21 +5512,21 @@
         <v>12</v>
       </c>
       <c r="W21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X21" t="s">
         <v>79</v>
       </c>
-      <c r="X21" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -5558,7 +5559,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O22">
         <v>6</v>
@@ -5585,21 +5586,21 @@
         <v>12</v>
       </c>
       <c r="W22" t="s">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s">
         <v>79</v>
       </c>
-      <c r="X22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D23">
         <v>8</v>
@@ -5632,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O23">
         <v>6</v>
@@ -5659,21 +5660,21 @@
         <v>12</v>
       </c>
       <c r="W23" t="s">
+        <v>78</v>
+      </c>
+      <c r="X23" t="s">
         <v>79</v>
       </c>
-      <c r="X23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -5706,7 +5707,7 @@
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O24">
         <v>4</v>
@@ -5733,21 +5734,21 @@
         <v>9</v>
       </c>
       <c r="W24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -5780,7 +5781,7 @@
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O25">
         <v>4</v>
@@ -5807,21 +5808,21 @@
         <v>8</v>
       </c>
       <c r="W25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -5854,7 +5855,7 @@
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O26">
         <v>4</v>
@@ -5881,21 +5882,21 @@
         <v>8</v>
       </c>
       <c r="W26" t="s">
+        <v>78</v>
+      </c>
+      <c r="X26" t="s">
         <v>79</v>
       </c>
-      <c r="X26" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27">
         <v>16</v>
@@ -5916,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -5928,7 +5929,7 @@
         <v>6</v>
       </c>
       <c r="N27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O27">
         <v>5</v>
@@ -5955,21 +5956,21 @@
         <v>12</v>
       </c>
       <c r="W27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D28">
         <v>16</v>
@@ -5990,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -6002,7 +6003,7 @@
         <v>7</v>
       </c>
       <c r="N28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O28">
         <v>5</v>
@@ -6029,21 +6030,21 @@
         <v>12</v>
       </c>
       <c r="W28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D29">
         <v>16</v>
@@ -6064,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -6076,7 +6077,7 @@
         <v>8</v>
       </c>
       <c r="N29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O29">
         <v>6</v>
@@ -6103,13 +6104,13 @@
         <v>12</v>
       </c>
       <c r="W29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -6150,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O30">
         <v>4</v>
@@ -6177,21 +6178,21 @@
         <v>12</v>
       </c>
       <c r="W30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -6224,7 +6225,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O31">
         <v>4</v>
@@ -6251,21 +6252,21 @@
         <v>12</v>
       </c>
       <c r="W31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -6298,7 +6299,7 @@
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O32">
         <v>5</v>
@@ -6325,21 +6326,21 @@
         <v>12</v>
       </c>
       <c r="W32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D33">
         <v>16</v>
@@ -6360,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -6372,7 +6373,7 @@
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O33">
         <v>5</v>
@@ -6399,21 +6400,21 @@
         <v>10</v>
       </c>
       <c r="W33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34">
         <v>16</v>
@@ -6434,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -6446,7 +6447,7 @@
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O34">
         <v>5</v>
@@ -6473,21 +6474,21 @@
         <v>10</v>
       </c>
       <c r="W34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35">
         <v>16</v>
@@ -6508,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -6520,7 +6521,7 @@
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O35">
         <v>6</v>
@@ -6547,21 +6548,21 @@
         <v>10</v>
       </c>
       <c r="W35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36">
         <v>12</v>
@@ -6594,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -6621,21 +6622,21 @@
         <v>12</v>
       </c>
       <c r="W36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37">
         <v>12</v>
@@ -6668,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -6695,21 +6696,21 @@
         <v>12</v>
       </c>
       <c r="W37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38">
         <v>12</v>
@@ -6742,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -6769,21 +6770,21 @@
         <v>12</v>
       </c>
       <c r="W38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39">
         <v>10</v>
@@ -6804,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -6816,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -6843,21 +6844,21 @@
         <v>6</v>
       </c>
       <c r="W39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D40">
         <v>8</v>
@@ -6890,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O40">
         <v>4</v>
@@ -6917,21 +6918,21 @@
         <v>10</v>
       </c>
       <c r="W40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D41">
         <v>8</v>
@@ -6964,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O41">
         <v>5</v>
@@ -6991,21 +6992,21 @@
         <v>9</v>
       </c>
       <c r="W41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D42">
         <v>8</v>
@@ -7038,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O42">
         <v>6</v>
@@ -7065,21 +7066,21 @@
         <v>9</v>
       </c>
       <c r="W42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -7112,7 +7113,7 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O43">
         <v>2</v>
@@ -7139,21 +7140,21 @@
         <v>10</v>
       </c>
       <c r="W43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X43" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D44">
         <v>10</v>
@@ -7186,7 +7187,7 @@
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O44">
         <v>2</v>
@@ -7213,21 +7214,21 @@
         <v>8</v>
       </c>
       <c r="W44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -7260,7 +7261,7 @@
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O45">
         <v>2</v>
@@ -7287,21 +7288,21 @@
         <v>8</v>
       </c>
       <c r="W45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D46">
         <v>16</v>
@@ -7322,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -7334,7 +7335,7 @@
         <v>9</v>
       </c>
       <c r="N46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O46">
         <v>4</v>
@@ -7361,21 +7362,21 @@
         <v>12</v>
       </c>
       <c r="W46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D47">
         <v>16</v>
@@ -7396,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -7408,7 +7409,7 @@
         <v>10</v>
       </c>
       <c r="N47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O47">
         <v>4</v>
@@ -7435,21 +7436,21 @@
         <v>12</v>
       </c>
       <c r="W47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X47" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D48">
         <v>16</v>
@@ -7470,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -7482,7 +7483,7 @@
         <v>10</v>
       </c>
       <c r="N48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O48">
         <v>5</v>
@@ -7509,21 +7510,21 @@
         <v>12</v>
       </c>
       <c r="W48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D49">
         <v>6</v>
@@ -7556,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O49">
         <v>2</v>
@@ -7583,21 +7584,21 @@
         <v>12</v>
       </c>
       <c r="W49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D50">
         <v>6</v>
@@ -7630,7 +7631,7 @@
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O50">
         <v>3</v>
@@ -7657,21 +7658,21 @@
         <v>12</v>
       </c>
       <c r="W50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D51">
         <v>6</v>
@@ -7704,7 +7705,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O51">
         <v>3</v>
@@ -7731,21 +7732,21 @@
         <v>12</v>
       </c>
       <c r="W51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D52">
         <v>16</v>
@@ -7766,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -7778,7 +7779,7 @@
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O52">
         <v>6</v>
@@ -7805,21 +7806,21 @@
         <v>6</v>
       </c>
       <c r="W52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D53">
         <v>16</v>
@@ -7840,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -7852,7 +7853,7 @@
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O53">
         <v>6</v>
@@ -7879,21 +7880,21 @@
         <v>6</v>
       </c>
       <c r="W53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D54">
         <v>16</v>
@@ -7914,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -7926,7 +7927,7 @@
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O54">
         <v>6</v>
@@ -7953,21 +7954,21 @@
         <v>6</v>
       </c>
       <c r="W54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D55">
         <v>12</v>
@@ -8000,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -8027,21 +8028,21 @@
         <v>12</v>
       </c>
       <c r="W55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D56">
         <v>12</v>
@@ -8074,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O56">
         <v>0</v>
@@ -8101,21 +8102,21 @@
         <v>12</v>
       </c>
       <c r="W56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D57">
         <v>12</v>
@@ -8148,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -8175,21 +8176,21 @@
         <v>12</v>
       </c>
       <c r="W57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D58">
         <v>10</v>
@@ -8210,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -8222,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -8249,21 +8250,21 @@
         <v>6</v>
       </c>
       <c r="W58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X58" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -8296,7 +8297,7 @@
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O59">
         <v>2</v>
@@ -8323,21 +8324,21 @@
         <v>14</v>
       </c>
       <c r="W59" t="s">
+        <v>78</v>
+      </c>
+      <c r="X59" t="s">
         <v>79</v>
       </c>
-      <c r="X59" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D60">
         <v>8</v>
@@ -8370,7 +8371,7 @@
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O60">
         <v>4</v>
@@ -8397,21 +8398,21 @@
         <v>14</v>
       </c>
       <c r="W60" t="s">
+        <v>78</v>
+      </c>
+      <c r="X60" t="s">
         <v>79</v>
       </c>
-      <c r="X60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D61">
         <v>8</v>
@@ -8444,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O61">
         <v>4</v>
@@ -8471,21 +8472,21 @@
         <v>14</v>
       </c>
       <c r="W61" t="s">
+        <v>78</v>
+      </c>
+      <c r="X61" t="s">
         <v>79</v>
       </c>
-      <c r="X61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D62">
         <v>10</v>
@@ -8518,7 +8519,7 @@
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O62">
         <v>4</v>
@@ -8545,21 +8546,21 @@
         <v>12</v>
       </c>
       <c r="W62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D63">
         <v>10</v>
@@ -8592,7 +8593,7 @@
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O63">
         <v>5</v>
@@ -8619,21 +8620,21 @@
         <v>11</v>
       </c>
       <c r="W63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D64">
         <v>10</v>
@@ -8666,7 +8667,7 @@
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O64">
         <v>5</v>
@@ -8693,21 +8694,21 @@
         <v>11</v>
       </c>
       <c r="W64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D65">
         <v>16</v>
@@ -8728,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -8740,7 +8741,7 @@
         <v>7</v>
       </c>
       <c r="N65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O65">
         <v>6</v>
@@ -8767,21 +8768,21 @@
         <v>14</v>
       </c>
       <c r="W65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D66">
         <v>16</v>
@@ -8802,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -8814,7 +8815,7 @@
         <v>8</v>
       </c>
       <c r="N66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O66">
         <v>6</v>
@@ -8841,21 +8842,21 @@
         <v>14</v>
       </c>
       <c r="W66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D67">
         <v>16</v>
@@ -8876,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K67">
         <v>3</v>
@@ -8888,7 +8889,7 @@
         <v>9</v>
       </c>
       <c r="N67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O67">
         <v>7</v>
@@ -8915,21 +8916,21 @@
         <v>14</v>
       </c>
       <c r="W67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D68">
         <v>6</v>
@@ -8962,7 +8963,7 @@
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O68">
         <v>4</v>
@@ -8989,21 +8990,21 @@
         <v>14</v>
       </c>
       <c r="W68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D69">
         <v>6</v>
@@ -9036,7 +9037,7 @@
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O69">
         <v>5</v>
@@ -9063,21 +9064,21 @@
         <v>14</v>
       </c>
       <c r="W69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D70">
         <v>6</v>
@@ -9110,7 +9111,7 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O70">
         <v>5</v>
@@ -9137,21 +9138,21 @@
         <v>12</v>
       </c>
       <c r="W70" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D71">
         <v>16</v>
@@ -9172,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -9184,7 +9185,7 @@
         <v>1</v>
       </c>
       <c r="N71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O71">
         <v>4</v>
@@ -9211,21 +9212,21 @@
         <v>6</v>
       </c>
       <c r="W71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D72">
         <v>16</v>
@@ -9246,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -9258,7 +9259,7 @@
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O72">
         <v>4</v>
@@ -9285,21 +9286,21 @@
         <v>6</v>
       </c>
       <c r="W72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D73">
         <v>16</v>
@@ -9320,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -9332,7 +9333,7 @@
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O73">
         <v>5</v>
@@ -9359,21 +9360,21 @@
         <v>6</v>
       </c>
       <c r="W73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X73" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D74">
         <v>12</v>
@@ -9406,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O74">
         <v>0</v>
@@ -9433,21 +9434,21 @@
         <v>14</v>
       </c>
       <c r="W74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X74" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D75">
         <v>12</v>
@@ -9480,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -9507,21 +9508,21 @@
         <v>14</v>
       </c>
       <c r="W75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D76">
         <v>12</v>
@@ -9554,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O76">
         <v>0</v>
@@ -9581,21 +9582,21 @@
         <v>14</v>
       </c>
       <c r="W76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X76" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C77" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D77">
         <v>10</v>
@@ -9616,7 +9617,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -9628,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -9655,21 +9656,21 @@
         <v>6</v>
       </c>
       <c r="W77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D78">
         <v>8</v>
@@ -9702,7 +9703,7 @@
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O78">
         <v>3</v>
@@ -9729,21 +9730,21 @@
         <v>12</v>
       </c>
       <c r="W78" t="s">
+        <v>78</v>
+      </c>
+      <c r="X78" t="s">
         <v>79</v>
       </c>
-      <c r="X78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -9776,7 +9777,7 @@
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O79">
         <v>4</v>
@@ -9803,21 +9804,21 @@
         <v>12</v>
       </c>
       <c r="W79" t="s">
+        <v>78</v>
+      </c>
+      <c r="X79" t="s">
         <v>79</v>
       </c>
-      <c r="X79" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D80">
         <v>8</v>
@@ -9850,7 +9851,7 @@
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O80">
         <v>5</v>
@@ -9877,21 +9878,21 @@
         <v>12</v>
       </c>
       <c r="W80" t="s">
+        <v>78</v>
+      </c>
+      <c r="X80" t="s">
         <v>79</v>
       </c>
-      <c r="X80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D81">
         <v>10</v>
@@ -9924,7 +9925,7 @@
         <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O81">
         <v>3</v>
@@ -9951,21 +9952,21 @@
         <v>10</v>
       </c>
       <c r="W81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X81" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C82" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D82">
         <v>10</v>
@@ -9998,7 +9999,7 @@
         <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O82">
         <v>3</v>
@@ -10025,21 +10026,21 @@
         <v>9</v>
       </c>
       <c r="W82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X82" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D83">
         <v>10</v>
@@ -10072,7 +10073,7 @@
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O83">
         <v>4</v>
@@ -10099,21 +10100,21 @@
         <v>9</v>
       </c>
       <c r="W83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D84">
         <v>16</v>
@@ -10134,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -10146,7 +10147,7 @@
         <v>9</v>
       </c>
       <c r="N84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O84">
         <v>6</v>
@@ -10173,21 +10174,21 @@
         <v>12</v>
       </c>
       <c r="W84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X84" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D85">
         <v>16</v>
@@ -10208,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -10220,7 +10221,7 @@
         <v>10</v>
       </c>
       <c r="N85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O85">
         <v>6</v>
@@ -10247,21 +10248,21 @@
         <v>12</v>
       </c>
       <c r="W85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X85" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D86">
         <v>16</v>
@@ -10282,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K86">
         <v>3</v>
@@ -10294,7 +10295,7 @@
         <v>11</v>
       </c>
       <c r="N86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O86">
         <v>7</v>
@@ -10321,21 +10322,21 @@
         <v>12</v>
       </c>
       <c r="W86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X86" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -10368,7 +10369,7 @@
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O87">
         <v>3</v>
@@ -10395,21 +10396,21 @@
         <v>12</v>
       </c>
       <c r="W87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X87" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D88">
         <v>6</v>
@@ -10442,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88">
         <v>4</v>
@@ -10469,21 +10470,21 @@
         <v>12</v>
       </c>
       <c r="W88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X88" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -10516,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O89">
         <v>4</v>
@@ -10543,21 +10544,21 @@
         <v>10</v>
       </c>
       <c r="W89" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X89" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D90">
         <v>16</v>
@@ -10578,7 +10579,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -10590,7 +10591,7 @@
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O90">
         <v>4</v>
@@ -10617,21 +10618,21 @@
         <v>6</v>
       </c>
       <c r="W90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X90" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D91">
         <v>16</v>
@@ -10652,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -10664,7 +10665,7 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O91">
         <v>4</v>
@@ -10691,21 +10692,21 @@
         <v>6</v>
       </c>
       <c r="W91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X91" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D92">
         <v>16</v>
@@ -10726,7 +10727,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K92">
         <v>3</v>
@@ -10738,7 +10739,7 @@
         <v>2</v>
       </c>
       <c r="N92" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O92">
         <v>5</v>
@@ -10765,21 +10766,21 @@
         <v>6</v>
       </c>
       <c r="W92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X92" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D93">
         <v>12</v>
@@ -10812,7 +10813,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O93">
         <v>0</v>
@@ -10839,21 +10840,21 @@
         <v>12</v>
       </c>
       <c r="W93" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X93" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D94">
         <v>12</v>
@@ -10886,7 +10887,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -10913,21 +10914,21 @@
         <v>12</v>
       </c>
       <c r="W94" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X94" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D95">
         <v>12</v>
@@ -10960,7 +10961,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O95">
         <v>0</v>
@@ -10987,21 +10988,21 @@
         <v>12</v>
       </c>
       <c r="W95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X95" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C96" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D96">
         <v>10</v>
@@ -11022,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K96">
         <v>1</v>
@@ -11034,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -11061,10 +11062,10 @@
         <v>6</v>
       </c>
       <c r="W96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -11077,18 +11078,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.08984375" customWidth="1"/>
-    <col min="12" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -11123,18 +11124,18 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2">
         <v>24</v>
@@ -11161,18 +11162,18 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>24</v>
@@ -11199,18 +11200,18 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>24</v>
@@ -11237,18 +11238,18 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>24</v>
@@ -11275,18 +11276,18 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6">
         <v>48</v>
@@ -11313,18 +11314,18 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>48</v>
@@ -11351,18 +11352,18 @@
         <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8">
         <v>48</v>
@@ -11389,18 +11390,18 @@
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>52</v>
@@ -11427,18 +11428,18 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10">
         <v>48</v>
@@ -11459,24 +11460,24 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11">
         <v>84</v>
@@ -11497,24 +11498,24 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12">
         <v>24</v>
@@ -11535,24 +11536,24 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13">
         <v>48</v>
@@ -11573,24 +11574,24 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
         <v>175</v>
-      </c>
-      <c r="C14" t="s">
-        <v>176</v>
       </c>
       <c r="D14">
         <v>16</v>
@@ -11617,18 +11618,18 @@
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C15" t="s">
         <v>177</v>
-      </c>
-      <c r="C15" t="s">
-        <v>178</v>
       </c>
       <c r="D15">
         <v>24</v>
@@ -11655,18 +11656,18 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16">
         <v>24</v>
@@ -11693,18 +11694,18 @@
         <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
         <v>180</v>
-      </c>
-      <c r="C17" t="s">
-        <v>181</v>
       </c>
       <c r="D17">
         <v>48</v>
@@ -11731,18 +11732,18 @@
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" t="s">
         <v>182</v>
-      </c>
-      <c r="C18" t="s">
-        <v>183</v>
       </c>
       <c r="D18">
         <v>56</v>
@@ -11763,24 +11764,24 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" t="s">
         <v>184</v>
-      </c>
-      <c r="C19" t="s">
-        <v>185</v>
       </c>
       <c r="D19">
         <v>72</v>
@@ -11801,24 +11802,24 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
         <v>186</v>
-      </c>
-      <c r="C20" t="s">
-        <v>187</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -11845,18 +11846,18 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" t="s">
         <v>188</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
       </c>
       <c r="D21">
         <v>36</v>
@@ -11883,18 +11884,18 @@
         <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" t="s">
         <v>190</v>
-      </c>
-      <c r="C22" t="s">
-        <v>191</v>
       </c>
       <c r="D22">
         <v>36</v>
@@ -11915,24 +11916,24 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D23">
         <v>52</v>
@@ -11953,24 +11954,24 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="s">
         <v>193</v>
-      </c>
-      <c r="C24" t="s">
-        <v>194</v>
       </c>
       <c r="D24">
         <v>48</v>
@@ -11997,18 +11998,18 @@
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" t="s">
         <v>195</v>
-      </c>
-      <c r="C25" t="s">
-        <v>196</v>
       </c>
       <c r="D25">
         <v>52</v>
@@ -12035,18 +12036,18 @@
         <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" t="s">
         <v>328</v>
-      </c>
-      <c r="C26" t="s">
-        <v>329</v>
       </c>
       <c r="D26">
         <v>24</v>
@@ -12073,18 +12074,18 @@
         <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" t="s">
         <v>331</v>
-      </c>
-      <c r="C27" t="s">
-        <v>332</v>
       </c>
       <c r="D27">
         <v>48</v>
@@ -12111,18 +12112,18 @@
         <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C28" t="s">
         <v>333</v>
-      </c>
-      <c r="C28" t="s">
-        <v>334</v>
       </c>
       <c r="D28">
         <v>24</v>
@@ -12149,18 +12150,18 @@
         <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" t="s">
         <v>336</v>
-      </c>
-      <c r="C29" t="s">
-        <v>337</v>
       </c>
       <c r="D29">
         <v>48</v>
@@ -12187,18 +12188,18 @@
         <v>3</v>
       </c>
       <c r="L29" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C30" t="s">
         <v>338</v>
-      </c>
-      <c r="C30" t="s">
-        <v>339</v>
       </c>
       <c r="D30">
         <v>48</v>
@@ -12219,24 +12220,24 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
       <c r="L30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>340</v>
+      </c>
+      <c r="C31" t="s">
         <v>341</v>
-      </c>
-      <c r="C31" t="s">
-        <v>342</v>
       </c>
       <c r="D31">
         <v>84</v>
@@ -12257,24 +12258,24 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
         <v>3</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>342</v>
+      </c>
+      <c r="C32" t="s">
         <v>343</v>
-      </c>
-      <c r="C32" t="s">
-        <v>344</v>
       </c>
       <c r="D32">
         <v>24</v>
@@ -12301,18 +12302,18 @@
         <v>2</v>
       </c>
       <c r="L32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C33" t="s">
         <v>346</v>
-      </c>
-      <c r="C33" t="s">
-        <v>347</v>
       </c>
       <c r="D33">
         <v>48</v>
@@ -12339,18 +12340,18 @@
         <v>3</v>
       </c>
       <c r="L33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C34" t="s">
         <v>348</v>
-      </c>
-      <c r="C34" t="s">
-        <v>349</v>
       </c>
       <c r="D34">
         <v>24</v>
@@ -12371,24 +12372,24 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K34">
         <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>350</v>
+      </c>
+      <c r="C35" t="s">
         <v>351</v>
-      </c>
-      <c r="C35" t="s">
-        <v>352</v>
       </c>
       <c r="D35">
         <v>48</v>
@@ -12409,24 +12410,24 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>352</v>
+      </c>
+      <c r="C36" t="s">
         <v>353</v>
-      </c>
-      <c r="C36" t="s">
-        <v>354</v>
       </c>
       <c r="D36">
         <v>24</v>
@@ -12453,18 +12454,18 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D37">
         <v>52</v>
@@ -12491,18 +12492,18 @@
         <v>3</v>
       </c>
       <c r="L37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>356</v>
+      </c>
+      <c r="C38" t="s">
         <v>357</v>
-      </c>
-      <c r="C38" t="s">
-        <v>358</v>
       </c>
       <c r="D38">
         <v>24</v>
@@ -12529,18 +12530,18 @@
         <v>2</v>
       </c>
       <c r="L38" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>358</v>
+      </c>
+      <c r="C39" t="s">
         <v>359</v>
-      </c>
-      <c r="C39" t="s">
-        <v>360</v>
       </c>
       <c r="D39">
         <v>48</v>
@@ -12567,18 +12568,18 @@
         <v>3</v>
       </c>
       <c r="L39" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>360</v>
+      </c>
+      <c r="C40" t="s">
         <v>361</v>
-      </c>
-      <c r="C40" t="s">
-        <v>362</v>
       </c>
       <c r="D40">
         <v>24</v>
@@ -12605,18 +12606,18 @@
         <v>2</v>
       </c>
       <c r="L40" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>362</v>
+      </c>
+      <c r="C41" t="s">
         <v>363</v>
-      </c>
-      <c r="C41" t="s">
-        <v>364</v>
       </c>
       <c r="D41">
         <v>48</v>
@@ -12643,18 +12644,18 @@
         <v>3</v>
       </c>
       <c r="L41" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>364</v>
+      </c>
+      <c r="C42" t="s">
         <v>365</v>
-      </c>
-      <c r="C42" t="s">
-        <v>366</v>
       </c>
       <c r="D42">
         <v>48</v>
@@ -12675,24 +12676,24 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42">
         <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>366</v>
+      </c>
+      <c r="C43" t="s">
         <v>367</v>
-      </c>
-      <c r="C43" t="s">
-        <v>368</v>
       </c>
       <c r="D43">
         <v>84</v>
@@ -12713,24 +12714,24 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>368</v>
+      </c>
+      <c r="C44" t="s">
         <v>369</v>
-      </c>
-      <c r="C44" t="s">
-        <v>370</v>
       </c>
       <c r="D44">
         <v>24</v>
@@ -12757,18 +12758,18 @@
         <v>2</v>
       </c>
       <c r="L44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
+        <v>370</v>
+      </c>
+      <c r="C45" t="s">
         <v>371</v>
-      </c>
-      <c r="C45" t="s">
-        <v>372</v>
       </c>
       <c r="D45">
         <v>48</v>
@@ -12795,18 +12796,18 @@
         <v>3</v>
       </c>
       <c r="L45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" t="s">
         <v>373</v>
-      </c>
-      <c r="C46" t="s">
-        <v>374</v>
       </c>
       <c r="D46">
         <v>24</v>
@@ -12827,24 +12828,24 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <v>2</v>
       </c>
       <c r="L46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>374</v>
+      </c>
+      <c r="C47" t="s">
         <v>375</v>
-      </c>
-      <c r="C47" t="s">
-        <v>376</v>
       </c>
       <c r="D47">
         <v>48</v>
@@ -12865,24 +12866,24 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K47">
         <v>3</v>
       </c>
       <c r="L47" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>376</v>
+      </c>
+      <c r="C48" t="s">
         <v>377</v>
-      </c>
-      <c r="C48" t="s">
-        <v>378</v>
       </c>
       <c r="D48">
         <v>24</v>
@@ -12909,18 +12910,18 @@
         <v>2</v>
       </c>
       <c r="L48" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>378</v>
+      </c>
+      <c r="C49" t="s">
         <v>379</v>
-      </c>
-      <c r="C49" t="s">
-        <v>380</v>
       </c>
       <c r="D49">
         <v>52</v>
@@ -12947,18 +12948,18 @@
         <v>3</v>
       </c>
       <c r="L49" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>380</v>
+      </c>
+      <c r="C50" t="s">
         <v>381</v>
-      </c>
-      <c r="C50" t="s">
-        <v>382</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -12985,18 +12986,18 @@
         <v>2</v>
       </c>
       <c r="L50" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>383</v>
+      </c>
+      <c r="C51" t="s">
         <v>384</v>
-      </c>
-      <c r="C51" t="s">
-        <v>385</v>
       </c>
       <c r="D51">
         <v>48</v>
@@ -13023,18 +13024,18 @@
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>385</v>
+      </c>
+      <c r="C52" t="s">
         <v>386</v>
-      </c>
-      <c r="C52" t="s">
-        <v>387</v>
       </c>
       <c r="D52">
         <v>24</v>
@@ -13061,18 +13062,18 @@
         <v>2</v>
       </c>
       <c r="L52" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
+        <v>387</v>
+      </c>
+      <c r="C53" t="s">
         <v>388</v>
-      </c>
-      <c r="C53" t="s">
-        <v>389</v>
       </c>
       <c r="D53">
         <v>48</v>
@@ -13099,18 +13100,18 @@
         <v>3</v>
       </c>
       <c r="L53" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>389</v>
+      </c>
+      <c r="C54" t="s">
         <v>390</v>
-      </c>
-      <c r="C54" t="s">
-        <v>391</v>
       </c>
       <c r="D54">
         <v>48</v>
@@ -13131,24 +13132,24 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K54">
         <v>2</v>
       </c>
       <c r="L54" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>392</v>
+      </c>
+      <c r="C55" t="s">
         <v>393</v>
-      </c>
-      <c r="C55" t="s">
-        <v>394</v>
       </c>
       <c r="D55">
         <v>84</v>
@@ -13169,24 +13170,24 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
         <v>3</v>
       </c>
       <c r="L55" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C56" t="s">
         <v>395</v>
-      </c>
-      <c r="C56" t="s">
-        <v>396</v>
       </c>
       <c r="D56">
         <v>24</v>
@@ -13213,18 +13214,18 @@
         <v>2</v>
       </c>
       <c r="L56" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>396</v>
+      </c>
+      <c r="C57" t="s">
         <v>397</v>
-      </c>
-      <c r="C57" t="s">
-        <v>398</v>
       </c>
       <c r="D57">
         <v>48</v>
@@ -13251,18 +13252,18 @@
         <v>3</v>
       </c>
       <c r="L57" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>398</v>
+      </c>
+      <c r="C58" t="s">
         <v>399</v>
-      </c>
-      <c r="C58" t="s">
-        <v>400</v>
       </c>
       <c r="D58">
         <v>24</v>
@@ -13283,24 +13284,24 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K58">
         <v>2</v>
       </c>
       <c r="L58" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>401</v>
+      </c>
+      <c r="C59" t="s">
         <v>402</v>
-      </c>
-      <c r="C59" t="s">
-        <v>403</v>
       </c>
       <c r="D59">
         <v>48</v>
@@ -13321,24 +13322,24 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
       <c r="L59" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>403</v>
+      </c>
+      <c r="C60" t="s">
         <v>404</v>
-      </c>
-      <c r="C60" t="s">
-        <v>405</v>
       </c>
       <c r="D60">
         <v>24</v>
@@ -13365,18 +13366,18 @@
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
+        <v>405</v>
+      </c>
+      <c r="C61" t="s">
         <v>406</v>
-      </c>
-      <c r="C61" t="s">
-        <v>407</v>
       </c>
       <c r="D61">
         <v>52</v>
@@ -13403,7 +13404,7 @@
         <v>3</v>
       </c>
       <c r="L61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
